--- a/medicine/Enfance/La_Vague_fantôme/La_Vague_fantôme.xlsx
+++ b/medicine/Enfance/La_Vague_fantôme/La_Vague_fantôme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Vague_fant%C3%B4me</t>
+          <t>La_Vague_fantôme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Vague fantôme est le douzième  tome de la série pour jeunesse CHERUB, écrit par Robert Muchamore. Il est sorti le 11 mai 2011 en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Vague_fant%C3%B4me</t>
+          <t>La_Vague_fantôme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dernière mission pour James Adams âgé de 17 ans : assurer la protection d'un gouverneur indonésien Tan Abdullah. Mais pendant sa mission, il est confronté à un dilemme : ce gouverneur s'est enrichi sur le dos des habitants à cause d'un tsunami dévastateur sous les yeux d'un ancien agent, Kyle, qui est le meilleur ami de James. Que doit-il faire : accomplir sa mission sans se poser de questions ou aider Kyle prêt a tout pour rendre la justice ?
 </t>
